--- a/Symphony/2021/February/All Details/15.02.2021/MC Bank Statement Feb-2021.xlsx
+++ b/Symphony/2021/February/All Details/15.02.2021/MC Bank Statement Feb-2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\February\All Details\15.02.2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feb 2021" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -731,9 +736,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -1955,14 +1960,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2785,6 +2790,15 @@
     <xf numFmtId="9" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2797,6 +2811,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2824,12 +2856,6 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2842,18 +2868,6 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2925,15 +2939,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="21" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3026,7 +3031,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3043,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3061,14 +3066,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3202,7 +3207,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3219,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3237,14 +3242,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3276,7 +3281,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,7 +3293,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3311,14 +3316,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3378,7 +3383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3410,9 +3415,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3444,6 +3450,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3619,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3640,33 +3647,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="283"/>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
+      <c r="A1" s="286"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="284"/>
-      <c r="B2" s="281" t="s">
+      <c r="A2" s="287"/>
+      <c r="B2" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="284"/>
-      <c r="B3" s="282" t="s">
+      <c r="A3" s="287"/>
+      <c r="B3" s="285" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="284"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3691,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="284"/>
+      <c r="A5" s="287"/>
       <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
@@ -3702,7 +3709,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="284"/>
+      <c r="A6" s="287"/>
       <c r="B6" s="39" t="s">
         <v>204</v>
       </c>
@@ -3720,7 +3727,7 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="284"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="39" t="s">
         <v>206</v>
       </c>
@@ -3739,7 +3746,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="284"/>
+      <c r="A8" s="287"/>
       <c r="B8" s="39" t="s">
         <v>164</v>
       </c>
@@ -3758,7 +3765,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="284"/>
+      <c r="A9" s="287"/>
       <c r="B9" s="39" t="s">
         <v>166</v>
       </c>
@@ -3777,7 +3784,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="284"/>
+      <c r="A10" s="287"/>
       <c r="B10" s="39" t="s">
         <v>215</v>
       </c>
@@ -3796,7 +3803,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="284"/>
+      <c r="A11" s="287"/>
       <c r="B11" s="39" t="s">
         <v>214</v>
       </c>
@@ -3815,7 +3822,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="284"/>
+      <c r="A12" s="287"/>
       <c r="B12" s="39" t="s">
         <v>217</v>
       </c>
@@ -3834,7 +3841,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="284"/>
+      <c r="A13" s="287"/>
       <c r="B13" s="39" t="s">
         <v>219</v>
       </c>
@@ -3853,7 +3860,7 @@
       <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="284"/>
+      <c r="A14" s="287"/>
       <c r="B14" s="39" t="s">
         <v>221</v>
       </c>
@@ -3872,7 +3879,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="284"/>
+      <c r="A15" s="287"/>
       <c r="B15" s="39" t="s">
         <v>223</v>
       </c>
@@ -3891,7 +3898,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="284"/>
+      <c r="A16" s="287"/>
       <c r="B16" s="39" t="s">
         <v>225</v>
       </c>
@@ -3910,7 +3917,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="284"/>
+      <c r="A17" s="287"/>
       <c r="B17" s="39" t="s">
         <v>227</v>
       </c>
@@ -3929,7 +3936,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="284"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="39" t="s">
         <v>229</v>
       </c>
@@ -3948,7 +3955,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="284"/>
+      <c r="A19" s="287"/>
       <c r="B19" s="39" t="s">
         <v>231</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="284"/>
+      <c r="A20" s="287"/>
       <c r="B20" s="39"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -3980,7 +3987,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="284"/>
+      <c r="A21" s="287"/>
       <c r="B21" s="39"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -3993,7 +4000,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="284"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="39"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -4006,7 +4013,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="284"/>
+      <c r="A23" s="287"/>
       <c r="B23" s="39"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -4019,7 +4026,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="284"/>
+      <c r="A24" s="287"/>
       <c r="B24" s="39"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -4032,7 +4039,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="284"/>
+      <c r="A25" s="287"/>
       <c r="B25" s="39"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -4045,7 +4052,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="284"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="39"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -4058,7 +4065,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="284"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="39"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -4071,7 +4078,7 @@
       <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="284"/>
+      <c r="A28" s="287"/>
       <c r="B28" s="39"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -4084,7 +4091,7 @@
       <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="284"/>
+      <c r="A29" s="287"/>
       <c r="B29" s="39"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -4097,7 +4104,7 @@
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="284"/>
+      <c r="A30" s="287"/>
       <c r="B30" s="39"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -4110,7 +4117,7 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="284"/>
+      <c r="A31" s="287"/>
       <c r="B31" s="39"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -4123,7 +4130,7 @@
       <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="284"/>
+      <c r="A32" s="287"/>
       <c r="B32" s="39"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -4136,7 +4143,7 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="284"/>
+      <c r="A33" s="287"/>
       <c r="B33" s="39"/>
       <c r="C33" s="38"/>
       <c r="D33" s="41"/>
@@ -4149,7 +4156,7 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="284"/>
+      <c r="A34" s="287"/>
       <c r="B34" s="39"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4162,7 +4169,7 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="284"/>
+      <c r="A35" s="287"/>
       <c r="B35" s="39"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -4175,7 +4182,7 @@
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="284"/>
+      <c r="A36" s="287"/>
       <c r="B36" s="39"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -4188,7 +4195,7 @@
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="284"/>
+      <c r="A37" s="287"/>
       <c r="B37" s="39"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -4201,7 +4208,7 @@
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="284"/>
+      <c r="A38" s="287"/>
       <c r="B38" s="39"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -4214,7 +4221,7 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="284"/>
+      <c r="A39" s="287"/>
       <c r="B39" s="39"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -4227,7 +4234,7 @@
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="284"/>
+      <c r="A40" s="287"/>
       <c r="B40" s="39"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
@@ -4240,7 +4247,7 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="284"/>
+      <c r="A41" s="287"/>
       <c r="B41" s="39"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -4253,7 +4260,7 @@
       <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="284"/>
+      <c r="A42" s="287"/>
       <c r="B42" s="39"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -4266,7 +4273,7 @@
       <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="284"/>
+      <c r="A43" s="287"/>
       <c r="B43" s="39"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
@@ -4279,7 +4286,7 @@
       <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="284"/>
+      <c r="A44" s="287"/>
       <c r="B44" s="39"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
@@ -4292,7 +4299,7 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="284"/>
+      <c r="A45" s="287"/>
       <c r="B45" s="39"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -4305,7 +4312,7 @@
       <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="284"/>
+      <c r="A46" s="287"/>
       <c r="B46" s="39"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
@@ -4318,7 +4325,7 @@
       <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="284"/>
+      <c r="A47" s="287"/>
       <c r="B47" s="39"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -4331,7 +4338,7 @@
       <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="284"/>
+      <c r="A48" s="287"/>
       <c r="B48" s="39"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
@@ -4344,7 +4351,7 @@
       <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="284"/>
+      <c r="A49" s="287"/>
       <c r="B49" s="39"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -4357,7 +4364,7 @@
       <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="284"/>
+      <c r="A50" s="287"/>
       <c r="B50" s="39"/>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -4370,7 +4377,7 @@
       <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="284"/>
+      <c r="A51" s="287"/>
       <c r="B51" s="39"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
@@ -4383,7 +4390,7 @@
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="284"/>
+      <c r="A52" s="287"/>
       <c r="B52" s="39"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -4396,7 +4403,7 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="284"/>
+      <c r="A53" s="287"/>
       <c r="B53" s="39"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
@@ -4409,7 +4416,7 @@
       <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="284"/>
+      <c r="A54" s="287"/>
       <c r="B54" s="39"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
@@ -4422,7 +4429,7 @@
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="284"/>
+      <c r="A55" s="287"/>
       <c r="B55" s="39"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
@@ -4434,7 +4441,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="284"/>
+      <c r="A56" s="287"/>
       <c r="B56" s="39"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
@@ -4446,7 +4453,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="284"/>
+      <c r="A57" s="287"/>
       <c r="B57" s="39"/>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
@@ -4458,7 +4465,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="284"/>
+      <c r="A58" s="287"/>
       <c r="B58" s="39"/>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
@@ -4470,7 +4477,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="284"/>
+      <c r="A59" s="287"/>
       <c r="B59" s="39"/>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
@@ -4482,7 +4489,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="284"/>
+      <c r="A60" s="287"/>
       <c r="B60" s="39"/>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
@@ -4494,7 +4501,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="284"/>
+      <c r="A61" s="287"/>
       <c r="B61" s="39"/>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
@@ -4506,7 +4513,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="284"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="39"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
@@ -4518,7 +4525,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="284"/>
+      <c r="A63" s="287"/>
       <c r="B63" s="39"/>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
@@ -4530,7 +4537,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="284"/>
+      <c r="A64" s="287"/>
       <c r="B64" s="39"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
@@ -4542,7 +4549,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="284"/>
+      <c r="A65" s="287"/>
       <c r="B65" s="39"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
@@ -4554,7 +4561,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="284"/>
+      <c r="A66" s="287"/>
       <c r="B66" s="39"/>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
@@ -4566,7 +4573,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="284"/>
+      <c r="A67" s="287"/>
       <c r="B67" s="39"/>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
@@ -4578,7 +4585,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="284"/>
+      <c r="A68" s="287"/>
       <c r="B68" s="39"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
@@ -4590,7 +4597,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="284"/>
+      <c r="A69" s="287"/>
       <c r="B69" s="39"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
@@ -4602,7 +4609,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="284"/>
+      <c r="A70" s="287"/>
       <c r="B70" s="39"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
@@ -4614,7 +4621,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="284"/>
+      <c r="A71" s="287"/>
       <c r="B71" s="39"/>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
@@ -4626,7 +4633,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="284"/>
+      <c r="A72" s="287"/>
       <c r="B72" s="39"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
@@ -4638,7 +4645,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="284"/>
+      <c r="A73" s="287"/>
       <c r="B73" s="39"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
@@ -4650,7 +4657,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="284"/>
+      <c r="A74" s="287"/>
       <c r="B74" s="39"/>
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
@@ -4662,7 +4669,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="284"/>
+      <c r="A75" s="287"/>
       <c r="B75" s="39"/>
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
@@ -4674,7 +4681,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="284"/>
+      <c r="A76" s="287"/>
       <c r="B76" s="39"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
@@ -4686,7 +4693,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="284"/>
+      <c r="A77" s="287"/>
       <c r="B77" s="39"/>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
@@ -4698,7 +4705,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="284"/>
+      <c r="A78" s="287"/>
       <c r="B78" s="39"/>
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
@@ -4710,7 +4717,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="284"/>
+      <c r="A79" s="287"/>
       <c r="B79" s="39"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
@@ -4722,7 +4729,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="284"/>
+      <c r="A80" s="287"/>
       <c r="B80" s="39"/>
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
@@ -4734,7 +4741,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="284"/>
+      <c r="A81" s="287"/>
       <c r="B81" s="39"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
@@ -4746,7 +4753,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="284"/>
+      <c r="A82" s="287"/>
       <c r="B82" s="39"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
@@ -4758,7 +4765,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="284"/>
+      <c r="A83" s="287"/>
       <c r="B83" s="44"/>
       <c r="C83" s="40">
         <f>SUM(C5:C72)</f>
@@ -4794,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4813,73 +4820,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="285"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
     </row>
     <row r="2" spans="1:26" s="198" customFormat="1" ht="18">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="295" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
     </row>
     <row r="3" spans="1:26" s="199" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="296" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="288"/>
-      <c r="L3" s="288"/>
-      <c r="M3" s="288"/>
-      <c r="N3" s="288"/>
-      <c r="O3" s="288"/>
-      <c r="P3" s="288"/>
-      <c r="Q3" s="288"/>
-      <c r="R3" s="288"/>
-      <c r="S3" s="289"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="298"/>
       <c r="U3" s="114"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -4888,58 +4895,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="201" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="299" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="292" t="s">
+      <c r="B4" s="301" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="288" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="288" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="288" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="288" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="288" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="288" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="294" t="s">
+      <c r="J4" s="288" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="294" t="s">
+      <c r="K4" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="294" t="s">
+      <c r="L4" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="294" t="s">
+      <c r="M4" s="288" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="294" t="s">
+      <c r="N4" s="288" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="300" t="s">
+      <c r="O4" s="290" t="s">
         <v>169</v>
       </c>
-      <c r="P4" s="302" t="s">
+      <c r="P4" s="292" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="298" t="s">
+      <c r="Q4" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="296" t="s">
+      <c r="R4" s="303" t="s">
         <v>110</v>
       </c>
       <c r="S4" s="200" t="s">
@@ -4952,24 +4959,24 @@
       <c r="Y4" s="203"/>
     </row>
     <row r="5" spans="1:26" s="201" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="291"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="299"/>
-      <c r="R5" s="297"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="291"/>
+      <c r="P5" s="293"/>
+      <c r="Q5" s="306"/>
+      <c r="R5" s="304"/>
       <c r="S5" s="205" t="s">
         <v>111</v>
       </c>
@@ -8100,11 +8107,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8121,6 +8123,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8129,11 +8136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8159,14 +8166,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
       <c r="L1" s="100"/>
       <c r="M1" s="256"/>
       <c r="N1" s="256"/>
@@ -8219,14 +8226,14 @@
       <c r="BI1" s="256"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="311" t="s">
+      <c r="A2" s="314" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
       <c r="L2" s="100"/>
       <c r="M2" s="256"/>
       <c r="N2" s="256"/>
@@ -8279,14 +8286,14 @@
       <c r="BI2" s="256"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
       <c r="K3" s="256"/>
       <c r="L3" s="100"/>
       <c r="M3" s="256"/>
@@ -10566,12 +10573,12 @@
       <c r="BI34" s="256"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="313" t="s">
+      <c r="A35" s="316" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="314"/>
-      <c r="C35" s="314"/>
-      <c r="D35" s="315"/>
+      <c r="B35" s="317"/>
+      <c r="C35" s="317"/>
+      <c r="D35" s="318"/>
       <c r="E35" s="114"/>
       <c r="F35" s="116"/>
       <c r="G35" s="130"/>
@@ -11146,13 +11153,13 @@
         <v>229</v>
       </c>
       <c r="E43" s="114"/>
-      <c r="F43" s="316" t="s">
+      <c r="F43" s="319" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="316"/>
-      <c r="H43" s="316"/>
-      <c r="I43" s="316"/>
-      <c r="J43" s="316"/>
+      <c r="G43" s="319"/>
+      <c r="H43" s="319"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="319"/>
       <c r="K43" s="146"/>
       <c r="L43" s="105"/>
       <c r="M43" s="256"/>
@@ -11333,11 +11340,11 @@
       <c r="A46" s="276" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="328"/>
-      <c r="C46" s="329">
+      <c r="B46" s="281"/>
+      <c r="C46" s="282">
         <v>10000</v>
       </c>
-      <c r="D46" s="330" t="s">
+      <c r="D46" s="283" t="s">
         <v>231</v>
       </c>
       <c r="E46" s="113"/>
@@ -12421,17 +12428,17 @@
       <c r="BI61" s="256"/>
     </row>
     <row r="62" spans="1:61">
-      <c r="A62" s="317" t="s">
+      <c r="A62" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="318"/>
+      <c r="B62" s="321"/>
       <c r="C62" s="151"/>
       <c r="D62" s="158"/>
       <c r="E62" s="122"/>
-      <c r="F62" s="304" t="s">
+      <c r="F62" s="307" t="s">
         <v>145</v>
       </c>
-      <c r="G62" s="304"/>
+      <c r="G62" s="307"/>
       <c r="H62" s="255"/>
       <c r="I62" s="255"/>
       <c r="J62" s="159" t="s">
@@ -16905,10 +16912,10 @@
       <c r="BI118" s="256"/>
     </row>
     <row r="119" spans="1:61">
-      <c r="A119" s="305" t="s">
+      <c r="A119" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="306"/>
+      <c r="B119" s="309"/>
       <c r="C119" s="174">
         <f>SUM(C37:C118)</f>
         <v>2551142</v>
@@ -17056,10 +17063,10 @@
       <c r="BI120" s="256"/>
     </row>
     <row r="121" spans="1:61">
-      <c r="A121" s="307" t="s">
+      <c r="A121" s="310" t="s">
         <v>94</v>
       </c>
-      <c r="B121" s="308"/>
+      <c r="B121" s="311"/>
       <c r="C121" s="179">
         <f>C119+L142</f>
         <v>2551142</v>
@@ -19132,8 +19139,8 @@
       <c r="N175" s="260"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="309"/>
-      <c r="G176" s="309"/>
+      <c r="F176" s="312"/>
+      <c r="G176" s="312"/>
       <c r="H176" s="256"/>
       <c r="I176" s="120"/>
       <c r="J176" s="100"/>
@@ -19786,13 +19793,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -19810,24 +19817,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="322" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="321"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="324"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="325" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="324"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="327"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -20312,13 +20319,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="325" t="s">
+      <c r="A15" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="326"/>
-      <c r="C15" s="326"/>
-      <c r="D15" s="326"/>
-      <c r="E15" s="327"/>
+      <c r="B15" s="329"/>
+      <c r="C15" s="329"/>
+      <c r="D15" s="329"/>
+      <c r="E15" s="330"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="28"/>
